--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori2/123/word_level_predictions_123.xlsx
@@ -6401,7 +6401,7 @@
       </c>
       <c r="F115" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G115" s="2" t="b">
@@ -6413,11 +6413,11 @@
         </is>
       </c>
       <c r="I115" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K115" s="2" t="b">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="L115" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="F116" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G116" s="2" t="b">
@@ -6465,11 +6465,11 @@
         </is>
       </c>
       <c r="I116" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K116" s="2" t="b">
@@ -6477,59 +6477,59 @@
       </c>
       <c r="L116" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" t="n">
         <v>9</v>
       </c>
-      <c r="B117" s="2" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C117" s="2" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>:</t>
         </is>
       </c>
-      <c r="D117" s="2" t="n">
+      <c r="D117" t="n">
         <v>6</v>
       </c>
-      <c r="E117" s="2" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="F117" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G117" s="2" t="b">
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G117" t="b">
         <v>0</v>
       </c>
-      <c r="H117" s="2" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="I117" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K117" s="2" t="b">
+      <c r="I117" t="b">
         <v>0</v>
       </c>
-      <c r="L117" s="2" t="inlineStr">
-        <is>
-          <t>False_I-NonEvent</t>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G118" t="b">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12358,624 +12358,624 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="n">
+      <c r="A230" t="n">
         <v>18</v>
       </c>
-      <c r="B230" s="2" t="inlineStr">
+      <c r="B230" t="inlineStr">
         <is>
           <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C230" s="2" t="inlineStr">
+      <c r="C230" t="inlineStr">
         <is>
           <t>point</t>
         </is>
       </c>
-      <c r="D230" s="2" t="n">
+      <c r="D230" t="n">
         <v>12</v>
       </c>
-      <c r="E230" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F230" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G230" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L230" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G230" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I230" t="b">
+        <v>1</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K230" t="b">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="n">
+      <c r="A231" t="n">
         <v>18</v>
       </c>
-      <c r="B231" s="2" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C231" s="2" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D231" s="2" t="n">
+      <c r="D231" t="n">
         <v>13</v>
       </c>
-      <c r="E231" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F231" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G231" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L231" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G231" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I231" t="b">
+        <v>1</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K231" t="b">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="2" t="n">
+      <c r="A232" t="n">
         <v>18</v>
       </c>
-      <c r="B232" s="2" t="inlineStr">
+      <c r="B232" t="inlineStr">
         <is>
           <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C232" s="2" t="inlineStr">
+      <c r="C232" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D232" s="2" t="n">
+      <c r="D232" t="n">
         <v>14</v>
       </c>
-      <c r="E232" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F232" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G232" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L232" s="2" t="inlineStr">
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G232" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I232" t="b">
+        <v>1</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K232" t="b">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" t="n">
         <v>18</v>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" t="n">
         <v>15</v>
       </c>
-      <c r="E233" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F233" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L233" s="2" t="inlineStr">
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K233" t="b">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>18</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" t="n">
         <v>16</v>
       </c>
-      <c r="E234" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F234" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>18</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>17</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F235" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" t="n">
         <v>18</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>wind-free</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" t="n">
         <v>18</v>
       </c>
-      <c r="E236" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="A237" t="n">
         <v>18</v>
       </c>
-      <c r="B237" s="2" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C237" s="2" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>environment</t>
         </is>
       </c>
-      <c r="D237" s="2" t="n">
+      <c r="D237" t="n">
         <v>19</v>
       </c>
-      <c r="E237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2" t="n">
+      <c r="A238" t="n">
         <v>18</v>
       </c>
-      <c r="B238" s="2" t="inlineStr">
+      <c r="B238" t="inlineStr">
         <is>
           <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C238" s="2" t="inlineStr">
+      <c r="C238" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D238" s="2" t="n">
+      <c r="D238" t="n">
         <v>20</v>
       </c>
-      <c r="E238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="2" t="n">
+      <c r="A239" t="n">
         <v>18</v>
       </c>
-      <c r="B239" s="2" t="inlineStr">
+      <c r="B239" t="inlineStr">
         <is>
           <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C239" s="2" t="inlineStr">
+      <c r="C239" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D239" s="2" t="n">
+      <c r="D239" t="n">
         <v>21</v>
       </c>
-      <c r="E239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="2" t="n">
+      <c r="A240" t="n">
         <v>18</v>
       </c>
-      <c r="B240" s="2" t="inlineStr">
+      <c r="B240" t="inlineStr">
         <is>
           <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C240" s="2" t="inlineStr">
+      <c r="C240" t="inlineStr">
         <is>
           <t>flight</t>
         </is>
       </c>
-      <c r="D240" s="2" t="n">
+      <c r="D240" t="n">
         <v>22</v>
       </c>
-      <c r="E240" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="2" t="n">
+      <c r="A241" t="n">
         <v>18</v>
       </c>
-      <c r="B241" s="2" t="inlineStr">
+      <c r="B241" t="inlineStr">
         <is>
           <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C241" s="2" t="inlineStr">
+      <c r="C241" t="inlineStr">
         <is>
           <t>safety</t>
         </is>
       </c>
-      <c r="D241" s="2" t="n">
+      <c r="D241" t="n">
         <v>23</v>
       </c>
-      <c r="E241" s="2" t="inlineStr">
+      <c r="E241" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F241" s="2" t="inlineStr">
+      <c r="F241" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G241" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I241" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J241" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K241" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L241" s="2" t="inlineStr">
+      <c r="G241" t="b">
+        <v>1</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I241" t="b">
+        <v>1</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K241" t="b">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13918,730 +13918,730 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="2" t="n">
+      <c r="A260" t="n">
         <v>20</v>
       </c>
-      <c r="B260" s="2" t="inlineStr">
+      <c r="B260" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C260" s="2" t="inlineStr">
+      <c r="C260" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D260" s="2" t="n">
+      <c r="D260" t="n">
         <v>0</v>
       </c>
-      <c r="E260" s="2" t="inlineStr">
+      <c r="E260" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F260" s="2" t="inlineStr">
+      <c r="F260" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G260" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L260" s="2" t="inlineStr">
+      <c r="G260" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I260" t="b">
+        <v>1</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K260" t="b">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="2" t="n">
+      <c r="A261" t="n">
         <v>20</v>
       </c>
-      <c r="B261" s="2" t="inlineStr">
+      <c r="B261" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C261" s="2" t="inlineStr">
+      <c r="C261" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D261" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E261" s="2" t="inlineStr">
+      <c r="D261" t="n">
+        <v>1</v>
+      </c>
+      <c r="E261" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F261" s="2" t="inlineStr">
+      <c r="F261" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G261" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L261" s="2" t="inlineStr">
+      <c r="G261" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I261" t="b">
+        <v>1</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K261" t="b">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="2" t="n">
+      <c r="A262" t="n">
         <v>20</v>
       </c>
-      <c r="B262" s="2" t="inlineStr">
+      <c r="B262" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C262" s="2" t="inlineStr">
+      <c r="C262" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D262" s="2" t="n">
+      <c r="D262" t="n">
         <v>2</v>
       </c>
-      <c r="E262" s="2" t="inlineStr">
+      <c r="E262" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F262" s="2" t="inlineStr">
+      <c r="F262" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G262" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L262" s="2" t="inlineStr">
+      <c r="G262" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I262" t="b">
+        <v>1</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K262" t="b">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="2" t="n">
+      <c r="A263" t="n">
         <v>20</v>
       </c>
-      <c r="B263" s="2" t="inlineStr">
+      <c r="B263" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C263" s="2" t="inlineStr">
+      <c r="C263" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D263" s="2" t="n">
+      <c r="D263" t="n">
         <v>3</v>
       </c>
-      <c r="E263" s="2" t="inlineStr">
+      <c r="E263" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F263" s="2" t="inlineStr">
+      <c r="F263" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G263" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L263" s="2" t="inlineStr">
+      <c r="G263" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I263" t="b">
+        <v>1</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K263" t="b">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="2" t="n">
+      <c r="A264" t="n">
         <v>20</v>
       </c>
-      <c r="B264" s="2" t="inlineStr">
+      <c r="B264" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C264" s="2" t="inlineStr">
+      <c r="C264" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D264" s="2" t="n">
+      <c r="D264" t="n">
         <v>4</v>
       </c>
-      <c r="E264" s="2" t="inlineStr">
+      <c r="E264" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F264" s="2" t="inlineStr">
+      <c r="F264" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G264" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L264" s="2" t="inlineStr">
+      <c r="G264" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I264" t="b">
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K264" t="b">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="2" t="n">
+      <c r="A265" t="n">
         <v>20</v>
       </c>
-      <c r="B265" s="2" t="inlineStr">
+      <c r="B265" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C265" s="2" t="inlineStr">
+      <c r="C265" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D265" s="2" t="n">
+      <c r="D265" t="n">
         <v>5</v>
       </c>
-      <c r="E265" s="2" t="inlineStr">
+      <c r="E265" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F265" s="2" t="inlineStr">
+      <c r="F265" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G265" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L265" s="2" t="inlineStr">
+      <c r="G265" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I265" t="b">
+        <v>1</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K265" t="b">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="2" t="n">
+      <c r="A266" t="n">
         <v>20</v>
       </c>
-      <c r="B266" s="2" t="inlineStr">
+      <c r="B266" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C266" s="2" t="inlineStr">
+      <c r="C266" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D266" s="2" t="n">
+      <c r="D266" t="n">
         <v>6</v>
       </c>
-      <c r="E266" s="2" t="inlineStr">
+      <c r="E266" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F266" s="2" t="inlineStr">
+      <c r="F266" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G266" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L266" s="2" t="inlineStr">
+      <c r="G266" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I266" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K266" t="b">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="2" t="n">
+      <c r="A267" t="n">
         <v>20</v>
       </c>
-      <c r="B267" s="2" t="inlineStr">
+      <c r="B267" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C267" s="2" t="inlineStr">
+      <c r="C267" t="inlineStr">
         <is>
           <t>(Airport</t>
         </is>
       </c>
-      <c r="D267" s="2" t="n">
+      <c r="D267" t="n">
         <v>7</v>
       </c>
-      <c r="E267" s="2" t="inlineStr">
+      <c r="E267" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F267" s="2" t="inlineStr">
+      <c r="F267" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G267" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L267" s="2" t="inlineStr">
+      <c r="G267" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I267" t="b">
+        <v>1</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K267" t="b">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="2" t="n">
+      <c r="A268" t="n">
         <v>20</v>
       </c>
-      <c r="B268" s="2" t="inlineStr">
+      <c r="B268" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C268" s="2" t="inlineStr">
+      <c r="C268" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="D268" s="2" t="n">
+      <c r="D268" t="n">
         <v>8</v>
       </c>
-      <c r="E268" s="2" t="inlineStr">
+      <c r="E268" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F268" s="2" t="inlineStr">
+      <c r="F268" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G268" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L268" s="2" t="inlineStr">
+      <c r="G268" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I268" t="b">
+        <v>1</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K268" t="b">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="2" t="n">
+      <c r="A269" t="n">
         <v>20</v>
       </c>
-      <c r="B269" s="2" t="inlineStr">
+      <c r="B269" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C269" s="2" t="inlineStr">
+      <c r="C269" t="inlineStr">
         <is>
           <t>Airspace</t>
         </is>
       </c>
-      <c r="D269" s="2" t="n">
+      <c r="D269" t="n">
         <v>9</v>
       </c>
-      <c r="E269" s="2" t="inlineStr">
+      <c r="E269" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F269" s="2" t="inlineStr">
+      <c r="F269" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G269" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J269" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L269" s="2" t="inlineStr">
+      <c r="G269" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I269" t="b">
+        <v>1</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K269" t="b">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="2" t="n">
+      <c r="A270" t="n">
         <v>20</v>
       </c>
-      <c r="B270" s="2" t="inlineStr">
+      <c r="B270" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C270" s="2" t="inlineStr">
+      <c r="C270" t="inlineStr">
         <is>
           <t>Unpaved</t>
         </is>
       </c>
-      <c r="D270" s="2" t="n">
+      <c r="D270" t="n">
         <v>10</v>
       </c>
-      <c r="E270" s="2" t="inlineStr">
+      <c r="E270" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F270" s="2" t="inlineStr">
+      <c r="F270" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G270" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L270" s="2" t="inlineStr">
+      <c r="G270" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I270" t="b">
+        <v>1</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K270" t="b">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="2" t="n">
+      <c r="A271" t="n">
         <v>20</v>
       </c>
-      <c r="B271" s="2" t="inlineStr">
+      <c r="B271" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C271" s="2" t="inlineStr">
+      <c r="C271" t="inlineStr">
         <is>
           <t>Airports</t>
         </is>
       </c>
-      <c r="D271" s="2" t="n">
+      <c r="D271" t="n">
         <v>11</v>
       </c>
-      <c r="E271" s="2" t="inlineStr">
+      <c r="E271" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F271" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G271" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J271" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L271" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G271" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I271" t="b">
+        <v>1</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K271" t="b">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="2" t="n">
+      <c r="A272" t="n">
         <v>20</v>
       </c>
-      <c r="B272" s="2" t="inlineStr">
+      <c r="B272" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C272" s="2" t="inlineStr">
+      <c r="C272" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D272" s="2" t="n">
+      <c r="D272" t="n">
         <v>12</v>
       </c>
-      <c r="E272" s="2" t="inlineStr">
+      <c r="E272" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F272" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G272" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H272" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I272" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J272" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K272" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L272" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G272" t="b">
+        <v>1</v>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I272" t="b">
+        <v>1</v>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K272" t="b">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="2" t="n">
+      <c r="A273" t="n">
         <v>20</v>
       </c>
-      <c r="B273" s="2" t="inlineStr">
+      <c r="B273" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C273" s="2" t="inlineStr">
+      <c r="C273" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D273" s="2" t="n">
+      <c r="D273" t="n">
         <v>13</v>
       </c>
-      <c r="E273" s="2" t="inlineStr">
+      <c r="E273" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F273" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G273" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I273" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J273" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K273" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L273" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G273" t="b">
+        <v>1</v>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I273" t="b">
+        <v>1</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K273" t="b">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17558,210 +17558,210 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="2" t="n">
+      <c r="A330" t="n">
         <v>27</v>
       </c>
-      <c r="B330" s="2" t="inlineStr">
+      <c r="B330" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C330" s="2" t="inlineStr">
+      <c r="C330" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D330" s="2" t="n">
+      <c r="D330" t="n">
         <v>0</v>
       </c>
-      <c r="E330" s="2" t="inlineStr">
+      <c r="E330" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F330" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G330" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H330" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I330" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J330" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K330" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L330" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G330" t="b">
+        <v>1</v>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I330" t="b">
+        <v>1</v>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K330" t="b">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="2" t="n">
+      <c r="A331" t="n">
         <v>27</v>
       </c>
-      <c r="B331" s="2" t="inlineStr">
+      <c r="B331" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C331" s="2" t="inlineStr">
+      <c r="C331" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D331" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E331" s="2" t="inlineStr">
+      <c r="D331" t="n">
+        <v>1</v>
+      </c>
+      <c r="E331" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F331" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G331" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H331" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I331" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J331" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K331" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L331" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G331" t="b">
+        <v>1</v>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I331" t="b">
+        <v>1</v>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K331" t="b">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="2" t="n">
+      <c r="A332" t="n">
         <v>27</v>
       </c>
-      <c r="B332" s="2" t="inlineStr">
+      <c r="B332" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C332" s="2" t="inlineStr">
+      <c r="C332" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D332" s="2" t="n">
+      <c r="D332" t="n">
         <v>2</v>
       </c>
-      <c r="E332" s="2" t="inlineStr">
+      <c r="E332" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F332" s="2" t="inlineStr">
+      <c r="F332" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G332" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H332" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I332" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J332" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K332" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L332" s="2" t="inlineStr">
+      <c r="G332" t="b">
+        <v>1</v>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I332" t="b">
+        <v>1</v>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K332" t="b">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="2" t="n">
+      <c r="A333" t="n">
         <v>27</v>
       </c>
-      <c r="B333" s="2" t="inlineStr">
+      <c r="B333" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C333" s="2" t="inlineStr">
+      <c r="C333" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D333" s="2" t="n">
+      <c r="D333" t="n">
         <v>3</v>
       </c>
-      <c r="E333" s="2" t="inlineStr">
+      <c r="E333" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F333" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G333" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H333" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I333" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J333" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K333" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L333" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G333" t="b">
+        <v>1</v>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I333" t="b">
+        <v>1</v>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K333" t="b">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -18546,156 +18546,156 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="2" t="n">
+      <c r="A349" t="n">
         <v>29</v>
       </c>
-      <c r="B349" s="2" t="inlineStr">
+      <c r="B349" t="inlineStr">
         <is>
           <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C349" s="2" t="inlineStr">
+      <c r="C349" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D349" s="2" t="n">
+      <c r="D349" t="n">
         <v>0</v>
       </c>
-      <c r="E349" s="2" t="inlineStr">
+      <c r="E349" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F349" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G349" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H349" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I349" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J349" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K349" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L349" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G349" t="b">
+        <v>1</v>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I349" t="b">
+        <v>1</v>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K349" t="b">
+        <v>1</v>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="2" t="n">
+      <c r="A350" t="n">
         <v>29</v>
       </c>
-      <c r="B350" s="2" t="inlineStr">
+      <c r="B350" t="inlineStr">
         <is>
           <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C350" s="2" t="inlineStr">
+      <c r="C350" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D350" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E350" s="2" t="inlineStr">
+      <c r="D350" t="n">
+        <v>1</v>
+      </c>
+      <c r="E350" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F350" s="2" t="inlineStr">
+      <c r="F350" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G350" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H350" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I350" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J350" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K350" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L350" s="2" t="inlineStr">
+      <c r="G350" t="b">
+        <v>1</v>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I350" t="b">
+        <v>1</v>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K350" t="b">
+        <v>1</v>
+      </c>
+      <c r="L350" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="2" t="n">
+      <c r="A351" t="n">
         <v>29</v>
       </c>
-      <c r="B351" s="2" t="inlineStr">
+      <c r="B351" t="inlineStr">
         <is>
           <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C351" s="2" t="inlineStr">
+      <c r="C351" t="inlineStr">
         <is>
           <t>Approached</t>
         </is>
       </c>
-      <c r="D351" s="2" t="n">
+      <c r="D351" t="n">
         <v>2</v>
       </c>
-      <c r="E351" s="2" t="inlineStr">
+      <c r="E351" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F351" s="2" t="inlineStr">
+      <c r="F351" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G351" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H351" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I351" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J351" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K351" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L351" s="2" t="inlineStr">
+      <c r="G351" t="b">
+        <v>1</v>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I351" t="b">
+        <v>1</v>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K351" t="b">
+        <v>1</v>
+      </c>
+      <c r="L351" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -22989,7 +22989,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G434" t="b">
@@ -23013,57 +23013,57 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="435">
-      <c r="A435" t="n">
+      <c r="A435" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B435" t="inlineStr">
+      <c r="B435" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator . Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C435" t="inlineStr">
+      <c r="C435" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D435" t="n">
+      <c r="D435" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E435" t="inlineStr">
+      <c r="E435" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F435" t="inlineStr">
+      <c r="F435" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G435" t="b">
-        <v>1</v>
-      </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I435" t="b">
-        <v>1</v>
-      </c>
-      <c r="J435" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K435" t="b">
-        <v>1</v>
-      </c>
-      <c r="L435" t="inlineStr">
+      <c r="G435" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H435" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I435" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J435" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K435" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L435" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -23954,366 +23954,366 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="2" t="n">
+      <c r="A453" t="n">
         <v>37</v>
       </c>
-      <c r="B453" s="2" t="inlineStr">
+      <c r="B453" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C453" s="2" t="inlineStr">
+      <c r="C453" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D453" s="2" t="n">
+      <c r="D453" t="n">
         <v>8</v>
       </c>
-      <c r="E453" s="2" t="inlineStr">
+      <c r="E453" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F453" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G453" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I453" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J453" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K453" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L453" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G453" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I453" t="b">
+        <v>1</v>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K453" t="b">
+        <v>1</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="2" t="n">
+      <c r="A454" t="n">
         <v>37</v>
       </c>
-      <c r="B454" s="2" t="inlineStr">
+      <c r="B454" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C454" s="2" t="inlineStr">
+      <c r="C454" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D454" s="2" t="n">
+      <c r="D454" t="n">
         <v>9</v>
       </c>
-      <c r="E454" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F454" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G454" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I454" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J454" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K454" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L454" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G454" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I454" t="b">
+        <v>1</v>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K454" t="b">
+        <v>1</v>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="2" t="n">
+      <c r="A455" t="n">
         <v>37</v>
       </c>
-      <c r="B455" s="2" t="inlineStr">
+      <c r="B455" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C455" s="2" t="inlineStr">
+      <c r="C455" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D455" s="2" t="n">
+      <c r="D455" t="n">
         <v>10</v>
       </c>
-      <c r="E455" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F455" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G455" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I455" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J455" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K455" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L455" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G455" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I455" t="b">
+        <v>1</v>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K455" t="b">
+        <v>1</v>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="2" t="n">
+      <c r="A456" t="n">
         <v>37</v>
       </c>
-      <c r="B456" s="2" t="inlineStr">
+      <c r="B456" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C456" s="2" t="inlineStr">
+      <c r="C456" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D456" s="2" t="n">
+      <c r="D456" t="n">
         <v>11</v>
       </c>
-      <c r="E456" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F456" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G456" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H456" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I456" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J456" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K456" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L456" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G456" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I456" t="b">
+        <v>1</v>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K456" t="b">
+        <v>1</v>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
+      <c r="A457" t="n">
         <v>37</v>
       </c>
-      <c r="B457" s="2" t="inlineStr">
+      <c r="B457" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C457" s="2" t="inlineStr">
+      <c r="C457" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D457" s="2" t="n">
+      <c r="D457" t="n">
         <v>12</v>
       </c>
-      <c r="E457" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F457" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L457" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G457" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I457" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K457" t="b">
+        <v>1</v>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="2" t="n">
+      <c r="A458" t="n">
         <v>37</v>
       </c>
-      <c r="B458" s="2" t="inlineStr">
+      <c r="B458" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C458" s="2" t="inlineStr">
+      <c r="C458" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D458" s="2" t="n">
+      <c r="D458" t="n">
         <v>13</v>
       </c>
-      <c r="E458" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F458" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L458" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="2" t="n">
+      <c r="A459" t="n">
         <v>37</v>
       </c>
-      <c r="B459" s="2" t="inlineStr">
+      <c r="B459" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C459" s="2" t="inlineStr">
+      <c r="C459" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D459" s="2" t="n">
+      <c r="D459" t="n">
         <v>14</v>
       </c>
-      <c r="E459" s="2" t="inlineStr">
+      <c r="E459" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F459" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L459" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G459" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K459" t="b">
+        <v>1</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori2/123/word_level_predictions_123.xlsx
@@ -6401,7 +6401,7 @@
       </c>
       <c r="F115" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G115" s="2" t="b">
@@ -6413,11 +6413,11 @@
         </is>
       </c>
       <c r="I115" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K115" s="2" t="b">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="L115" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="F116" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G116" s="2" t="b">
@@ -6465,71 +6465,71 @@
         </is>
       </c>
       <c r="I116" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" s="2" t="inlineStr">
         <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L116" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E117" s="2" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="F117" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G117" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H117" s="2" t="inlineStr">
+        <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L116" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>9</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
-        <v>6</v>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G117" t="b">
-        <v>0</v>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="I117" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K117" t="b">
-        <v>1</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I117" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J117" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K117" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L117" s="2" t="inlineStr">
+        <is>
+          <t>False_I-NonEvent</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G118" t="b">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -12358,624 +12358,624 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n">
+      <c r="A230" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B230" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
+      <c r="C230" s="2" t="inlineStr">
         <is>
           <t>point</t>
         </is>
       </c>
-      <c r="D230" t="n">
+      <c r="D230" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G230" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I230" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K230" t="b">
-        <v>1</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
+      <c r="E230" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F230" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G230" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J230" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L230" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="n">
+      <c r="A231" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B231" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
+      <c r="C231" s="2" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D231" t="n">
+      <c r="D231" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G231" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I231" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K231" t="b">
-        <v>1</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E231" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F231" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G231" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J231" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L231" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="n">
+      <c r="A232" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B232" t="inlineStr">
+      <c r="B232" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
+      <c r="C232" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D232" t="n">
+      <c r="D232" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G232" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I232" t="b">
-        <v>1</v>
-      </c>
-      <c r="J232" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K232" t="b">
-        <v>1</v>
-      </c>
-      <c r="L232" t="inlineStr">
+      <c r="E232" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F232" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G232" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J232" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L232" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C233" s="2" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D233" t="n">
+      <c r="D233" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G233" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I233" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K233" t="b">
-        <v>1</v>
-      </c>
-      <c r="L233" t="inlineStr">
+      <c r="E233" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F233" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J233" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
+      <c r="A234" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B234" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="C234" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D234" t="n">
+      <c r="D234" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
+      <c r="E234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="n">
+      <c r="A235" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B235" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
+      <c r="C235" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D235" t="n">
+      <c r="D235" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
+      <c r="E235" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F235" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="n">
+      <c r="A236" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B236" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
+      <c r="C236" s="2" t="inlineStr">
         <is>
           <t>wind-free</t>
         </is>
       </c>
-      <c r="D236" t="n">
+      <c r="D236" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
+      <c r="E236" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
+      <c r="A237" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B237" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
+      <c r="C237" s="2" t="inlineStr">
         <is>
           <t>environment</t>
         </is>
       </c>
-      <c r="D237" t="n">
+      <c r="D237" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
+      <c r="E237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="n">
+      <c r="A238" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
+      <c r="C238" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D238" t="n">
+      <c r="D238" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
+      <c r="E238" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F238" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="n">
+      <c r="A239" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B239" t="inlineStr">
+      <c r="B239" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr">
+      <c r="C239" s="2" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D239" t="n">
+      <c r="D239" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
+      <c r="E239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="n">
+      <c r="A240" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B240" t="inlineStr">
+      <c r="B240" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr">
+      <c r="C240" s="2" t="inlineStr">
         <is>
           <t>flight</t>
         </is>
       </c>
-      <c r="D240" t="n">
+      <c r="D240" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
+      <c r="E240" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="n">
+      <c r="A241" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B241" t="inlineStr">
+      <c r="B241" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr">
+      <c r="C241" s="2" t="inlineStr">
         <is>
           <t>safety</t>
         </is>
       </c>
-      <c r="D241" t="n">
+      <c r="D241" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E241" t="inlineStr">
+      <c r="E241" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
+      <c r="F241" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G241" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I241" t="b">
-        <v>1</v>
-      </c>
-      <c r="J241" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K241" t="b">
-        <v>1</v>
-      </c>
-      <c r="L241" t="inlineStr">
+      <c r="G241" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H241" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I241" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J241" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K241" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L241" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13918,730 +13918,730 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="n">
+      <c r="A260" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B260" t="inlineStr">
+      <c r="B260" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
+      <c r="C260" s="2" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D260" t="n">
-        <v>0</v>
-      </c>
-      <c r="E260" t="inlineStr">
+      <c r="D260" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
+      <c r="F260" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G260" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I260" t="b">
-        <v>1</v>
-      </c>
-      <c r="J260" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K260" t="b">
-        <v>1</v>
-      </c>
-      <c r="L260" t="inlineStr">
+      <c r="G260" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J260" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L260" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="n">
+      <c r="A261" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B261" t="inlineStr">
+      <c r="B261" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
+      <c r="C261" s="2" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D261" t="n">
-        <v>1</v>
-      </c>
-      <c r="E261" t="inlineStr">
+      <c r="D261" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E261" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
+      <c r="F261" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G261" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I261" t="b">
-        <v>1</v>
-      </c>
-      <c r="J261" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K261" t="b">
-        <v>1</v>
-      </c>
-      <c r="L261" t="inlineStr">
+      <c r="G261" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J261" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L261" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="n">
+      <c r="A262" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="B262" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
+      <c r="C262" s="2" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D262" t="n">
+      <c r="D262" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E262" t="inlineStr">
+      <c r="E262" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
+      <c r="F262" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G262" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I262" t="b">
-        <v>1</v>
-      </c>
-      <c r="J262" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K262" t="b">
-        <v>1</v>
-      </c>
-      <c r="L262" t="inlineStr">
+      <c r="G262" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J262" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L262" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="n">
+      <c r="A263" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B263" t="inlineStr">
+      <c r="B263" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
+      <c r="C263" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D263" t="n">
+      <c r="D263" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E263" t="inlineStr">
+      <c r="E263" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
+      <c r="F263" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G263" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I263" t="b">
-        <v>1</v>
-      </c>
-      <c r="J263" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K263" t="b">
-        <v>1</v>
-      </c>
-      <c r="L263" t="inlineStr">
+      <c r="G263" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J263" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L263" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="n">
+      <c r="A264" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B264" t="inlineStr">
+      <c r="B264" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
+      <c r="C264" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D264" t="n">
+      <c r="D264" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E264" t="inlineStr">
+      <c r="E264" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
+      <c r="F264" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G264" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I264" t="b">
-        <v>1</v>
-      </c>
-      <c r="J264" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K264" t="b">
-        <v>1</v>
-      </c>
-      <c r="L264" t="inlineStr">
+      <c r="G264" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J264" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L264" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="n">
+      <c r="A265" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B265" t="inlineStr">
+      <c r="B265" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
+      <c r="C265" s="2" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D265" t="n">
+      <c r="D265" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E265" t="inlineStr">
+      <c r="E265" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F265" t="inlineStr">
+      <c r="F265" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G265" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I265" t="b">
-        <v>1</v>
-      </c>
-      <c r="J265" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K265" t="b">
-        <v>1</v>
-      </c>
-      <c r="L265" t="inlineStr">
+      <c r="G265" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J265" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L265" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="n">
+      <c r="A266" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="B266" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
+      <c r="C266" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D266" t="n">
+      <c r="D266" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E266" t="inlineStr">
+      <c r="E266" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
+      <c r="F266" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G266" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I266" t="b">
-        <v>1</v>
-      </c>
-      <c r="J266" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K266" t="b">
-        <v>1</v>
-      </c>
-      <c r="L266" t="inlineStr">
+      <c r="G266" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J266" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L266" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="n">
+      <c r="A267" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="B267" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr">
+      <c r="C267" s="2" t="inlineStr">
         <is>
           <t>(Airport</t>
         </is>
       </c>
-      <c r="D267" t="n">
+      <c r="D267" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E267" t="inlineStr">
+      <c r="E267" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
+      <c r="F267" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G267" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I267" t="b">
-        <v>1</v>
-      </c>
-      <c r="J267" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K267" t="b">
-        <v>1</v>
-      </c>
-      <c r="L267" t="inlineStr">
+      <c r="G267" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J267" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L267" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="n">
+      <c r="A268" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B268" t="inlineStr">
+      <c r="B268" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
+      <c r="C268" s="2" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="D268" t="n">
+      <c r="D268" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E268" t="inlineStr">
+      <c r="E268" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
+      <c r="F268" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G268" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I268" t="b">
-        <v>1</v>
-      </c>
-      <c r="J268" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K268" t="b">
-        <v>1</v>
-      </c>
-      <c r="L268" t="inlineStr">
+      <c r="G268" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J268" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L268" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="n">
+      <c r="A269" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B269" t="inlineStr">
+      <c r="B269" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
+      <c r="C269" s="2" t="inlineStr">
         <is>
           <t>Airspace</t>
         </is>
       </c>
-      <c r="D269" t="n">
+      <c r="D269" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E269" t="inlineStr">
+      <c r="E269" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
+      <c r="F269" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G269" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I269" t="b">
-        <v>1</v>
-      </c>
-      <c r="J269" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K269" t="b">
-        <v>1</v>
-      </c>
-      <c r="L269" t="inlineStr">
+      <c r="G269" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J269" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L269" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="n">
+      <c r="A270" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B270" t="inlineStr">
+      <c r="B270" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
+      <c r="C270" s="2" t="inlineStr">
         <is>
           <t>Unpaved</t>
         </is>
       </c>
-      <c r="D270" t="n">
+      <c r="D270" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E270" t="inlineStr">
+      <c r="E270" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
+      <c r="F270" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G270" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I270" t="b">
-        <v>1</v>
-      </c>
-      <c r="J270" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K270" t="b">
-        <v>1</v>
-      </c>
-      <c r="L270" t="inlineStr">
+      <c r="G270" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J270" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L270" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="n">
+      <c r="A271" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B271" t="inlineStr">
+      <c r="B271" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr">
+      <c r="C271" s="2" t="inlineStr">
         <is>
           <t>Airports</t>
         </is>
       </c>
-      <c r="D271" t="n">
+      <c r="D271" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E271" t="inlineStr">
+      <c r="E271" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
+      <c r="F271" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G271" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J271" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L271" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B272" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C272" s="2" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D272" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E272" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G271" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I271" t="b">
-        <v>1</v>
-      </c>
-      <c r="J271" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K271" t="b">
-        <v>1</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="n">
+      <c r="F272" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G272" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H272" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I272" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J272" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K272" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L272" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B272" t="inlineStr">
+      <c r="B273" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D272" t="n">
-        <v>12</v>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G272" t="b">
-        <v>1</v>
-      </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I272" t="b">
-        <v>1</v>
-      </c>
-      <c r="J272" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K272" t="b">
-        <v>1</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="n">
-        <v>20</v>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
+      <c r="C273" s="2" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D273" t="n">
+      <c r="D273" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E273" t="inlineStr">
+      <c r="E273" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G273" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I273" t="b">
-        <v>1</v>
-      </c>
-      <c r="J273" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K273" t="b">
-        <v>1</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F273" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G273" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H273" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I273" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J273" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K273" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L273" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -17558,210 +17558,210 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="n">
+      <c r="A330" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B330" t="inlineStr">
+      <c r="B330" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C330" t="inlineStr">
+      <c r="C330" s="2" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D330" t="n">
-        <v>0</v>
-      </c>
-      <c r="E330" t="inlineStr">
+      <c r="D330" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E330" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F330" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G330" t="b">
-        <v>1</v>
-      </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I330" t="b">
-        <v>1</v>
-      </c>
-      <c r="J330" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K330" t="b">
-        <v>1</v>
-      </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F330" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G330" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H330" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I330" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J330" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K330" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L330" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="n">
+      <c r="A331" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B331" t="inlineStr">
+      <c r="B331" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C331" t="inlineStr">
+      <c r="C331" s="2" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D331" t="n">
-        <v>1</v>
-      </c>
-      <c r="E331" t="inlineStr">
+      <c r="D331" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E331" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F331" t="inlineStr">
+      <c r="F331" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G331" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H331" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I331" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J331" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K331" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L331" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B332" s="2" t="inlineStr">
+        <is>
+          <t>Insufficient SD card space . Change card or delete files .</t>
+        </is>
+      </c>
+      <c r="C332" s="2" t="inlineStr">
+        <is>
+          <t>card</t>
+        </is>
+      </c>
+      <c r="D332" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E332" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G331" t="b">
-        <v>1</v>
-      </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I331" t="b">
-        <v>1</v>
-      </c>
-      <c r="J331" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K331" t="b">
-        <v>1</v>
-      </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="n">
+      <c r="F332" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G332" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H332" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I332" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J332" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K332" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L332" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B332" t="inlineStr">
+      <c r="B333" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>card</t>
-        </is>
-      </c>
-      <c r="D332" t="n">
-        <v>2</v>
-      </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F332" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G332" t="b">
-        <v>1</v>
-      </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I332" t="b">
-        <v>1</v>
-      </c>
-      <c r="J332" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K332" t="b">
-        <v>1</v>
-      </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="n">
-        <v>27</v>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>Insufficient SD card space . Change card or delete files .</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
+      <c r="C333" s="2" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D333" t="n">
+      <c r="D333" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E333" t="inlineStr">
+      <c r="E333" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G333" t="b">
-        <v>1</v>
-      </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I333" t="b">
-        <v>1</v>
-      </c>
-      <c r="J333" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K333" t="b">
-        <v>1</v>
-      </c>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F333" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G333" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H333" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I333" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J333" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K333" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L333" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -18546,156 +18546,156 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="n">
+      <c r="A349" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B349" t="inlineStr">
+      <c r="B349" s="2" t="inlineStr">
         <is>
           <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C349" t="inlineStr">
+      <c r="C349" s="2" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D349" t="n">
-        <v>0</v>
-      </c>
-      <c r="E349" t="inlineStr">
+      <c r="D349" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E349" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F349" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G349" t="b">
-        <v>1</v>
-      </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I349" t="b">
-        <v>1</v>
-      </c>
-      <c r="J349" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K349" t="b">
-        <v>1</v>
-      </c>
-      <c r="L349" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F349" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G349" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H349" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I349" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J349" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K349" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L349" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="n">
+      <c r="A350" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B350" t="inlineStr">
+      <c r="B350" s="2" t="inlineStr">
         <is>
           <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C350" t="inlineStr">
+      <c r="C350" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D350" t="n">
-        <v>1</v>
-      </c>
-      <c r="E350" t="inlineStr">
+      <c r="D350" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E350" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F350" t="inlineStr">
+      <c r="F350" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G350" t="b">
-        <v>1</v>
-      </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I350" t="b">
-        <v>1</v>
-      </c>
-      <c r="J350" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K350" t="b">
-        <v>1</v>
-      </c>
-      <c r="L350" t="inlineStr">
+      <c r="G350" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H350" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I350" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J350" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K350" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L350" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="n">
+      <c r="A351" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B351" t="inlineStr">
+      <c r="B351" s="2" t="inlineStr">
         <is>
           <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C351" t="inlineStr">
+      <c r="C351" s="2" t="inlineStr">
         <is>
           <t>Approached</t>
         </is>
       </c>
-      <c r="D351" t="n">
+      <c r="D351" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E351" t="inlineStr">
+      <c r="E351" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F351" t="inlineStr">
+      <c r="F351" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G351" t="b">
-        <v>1</v>
-      </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I351" t="b">
-        <v>1</v>
-      </c>
-      <c r="J351" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K351" t="b">
-        <v>1</v>
-      </c>
-      <c r="L351" t="inlineStr">
+      <c r="G351" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H351" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I351" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J351" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K351" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L351" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -22989,81 +22989,81 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G434" t="b">
+        <v>1</v>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I434" t="b">
+        <v>1</v>
+      </c>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K434" t="b">
+        <v>1</v>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>35</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Running Flight Simulator . Restart aircraft to take off .</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D435" t="n">
+        <v>8</v>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G434" t="b">
-        <v>1</v>
-      </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I434" t="b">
-        <v>1</v>
-      </c>
-      <c r="J434" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K434" t="b">
-        <v>1</v>
-      </c>
-      <c r="L434" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B435" s="2" t="inlineStr">
-        <is>
-          <t>Running Flight Simulator . Restart aircraft to take off .</t>
-        </is>
-      </c>
-      <c r="C435" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D435" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E435" s="2" t="inlineStr">
+      <c r="F435" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F435" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G435" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H435" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I435" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J435" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K435" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L435" s="2" t="inlineStr">
+      <c r="G435" t="b">
+        <v>1</v>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I435" t="b">
+        <v>1</v>
+      </c>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K435" t="b">
+        <v>1</v>
+      </c>
+      <c r="L435" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -23954,366 +23954,366 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="n">
+      <c r="A453" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B453" t="inlineStr">
+      <c r="B453" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C453" t="inlineStr">
+      <c r="C453" s="2" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D453" t="n">
+      <c r="D453" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E453" t="inlineStr">
+      <c r="E453" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F453" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G453" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I453" t="b">
-        <v>1</v>
-      </c>
-      <c r="J453" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K453" t="b">
-        <v>1</v>
-      </c>
-      <c r="L453" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F453" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G453" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I453" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J453" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K453" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L453" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="n">
+      <c r="A454" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B454" t="inlineStr">
+      <c r="B454" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C454" t="inlineStr">
+      <c r="C454" s="2" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D454" t="n">
+      <c r="D454" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E454" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F454" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G454" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I454" t="b">
-        <v>1</v>
-      </c>
-      <c r="J454" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K454" t="b">
-        <v>1</v>
-      </c>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E454" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F454" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G454" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I454" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J454" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K454" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L454" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="n">
+      <c r="A455" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B455" t="inlineStr">
+      <c r="B455" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C455" t="inlineStr">
+      <c r="C455" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D455" t="n">
+      <c r="D455" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E455" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F455" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G455" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I455" t="b">
-        <v>1</v>
-      </c>
-      <c r="J455" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K455" t="b">
-        <v>1</v>
-      </c>
-      <c r="L455" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E455" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F455" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G455" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I455" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J455" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K455" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L455" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="n">
+      <c r="A456" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B456" t="inlineStr">
+      <c r="B456" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C456" t="inlineStr">
+      <c r="C456" s="2" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D456" t="n">
+      <c r="D456" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E456" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F456" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G456" t="b">
-        <v>1</v>
-      </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I456" t="b">
-        <v>1</v>
-      </c>
-      <c r="J456" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K456" t="b">
-        <v>1</v>
-      </c>
-      <c r="L456" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E456" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F456" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G456" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I456" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J456" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K456" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L456" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="n">
+      <c r="A457" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B457" t="inlineStr">
+      <c r="B457" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
+      <c r="C457" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D457" t="n">
+      <c r="D457" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E457" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F457" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G457" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I457" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K457" t="b">
-        <v>1</v>
-      </c>
-      <c r="L457" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E457" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F457" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L457" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="n">
+      <c r="A458" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B458" t="inlineStr">
+      <c r="B458" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
+      <c r="C458" s="2" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D458" t="n">
+      <c r="D458" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E458" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F458" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L458" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="n">
+      <c r="A459" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B459" t="inlineStr">
+      <c r="B459" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C459" t="inlineStr">
+      <c r="C459" s="2" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D459" t="n">
+      <c r="D459" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E459" t="inlineStr">
+      <c r="E459" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F459" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G459" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K459" t="b">
-        <v>1</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F459" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L459" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
